--- a/REVER_DailyTracker_20200612.xlsx
+++ b/REVER_DailyTracker_20200612.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB76D6F-217E-4724-9ADB-CD448410251D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF5DD3-ADB3-4403-8CDE-CE2D2578830B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>Div Images align and Text design(Store)</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Invoice update OW -testing</t>
+  </si>
+  <si>
+    <t>Invoice update IW coding started</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -465,6 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1317,9 +1327,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1327,8 +1343,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.3</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
@@ -1653,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20200612.xlsx
+++ b/REVER_DailyTracker_20200612.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF5DD3-ADB3-4403-8CDE-CE2D2578830B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909947D7-5572-4DA3-A87D-CEC9F30021FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -100,9 +100,6 @@
     <t>MujiStore</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>Invoice update IW coding started</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -413,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -475,6 +485,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,15 +809,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -828,7 +841,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -919,15 +932,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1040,19 +1053,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1078,46 +1091,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43994</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1179,15 +1182,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1286,19 +1289,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1328,10 +1331,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -1344,7 +1347,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="34">
         <v>0.3</v>
@@ -1411,15 +1414,15 @@
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1474,10 +1477,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1495,10 +1498,10 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7">
         <v>0.6</v>
@@ -1566,15 +1569,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1677,15 +1680,15 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1719,10 +1722,10 @@
         <v>43951</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="7">
         <v>0.7</v>
@@ -1731,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1742,10 +1745,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1763,10 +1766,10 @@
         <v>43955</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>0.4</v>
@@ -1775,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
@@ -1786,10 +1789,10 @@
         <v>43956</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1807,10 +1810,10 @@
         <v>43957</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>0.5</v>
@@ -1819,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
@@ -1830,10 +1833,10 @@
         <v>43958</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1842,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -1853,10 +1856,10 @@
         <v>43959</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="28">
         <v>0.3</v>
@@ -1865,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
@@ -1876,10 +1879,10 @@
         <v>43962</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="28">
         <v>0.3</v>
@@ -1888,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
@@ -1899,10 +1902,10 @@
         <v>43963</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1920,10 +1923,10 @@
         <v>43964</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="28">
         <v>0.6</v>
@@ -1932,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
@@ -1943,19 +1946,19 @@
         <v>43965</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
@@ -1966,10 +1969,10 @@
         <v>43966</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7">
         <v>0.3</v>
@@ -1978,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -1989,10 +1992,10 @@
         <v>43969</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="28">
         <v>0.3</v>
@@ -2001,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
@@ -2012,10 +2015,10 @@
         <v>43970</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="28">
         <v>0.3</v>
@@ -2024,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
@@ -2035,10 +2038,10 @@
         <v>43971</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
@@ -2047,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -2058,10 +2061,10 @@
         <v>43972</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -2079,10 +2082,10 @@
         <v>43973</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="28">
         <v>0.5</v>
@@ -2091,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1">
@@ -2102,19 +2105,19 @@
         <v>43977</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1">
@@ -2125,10 +2128,10 @@
         <v>43978</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7">
         <v>0.3</v>
@@ -2137,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2148,10 +2151,10 @@
         <v>43979</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7">
         <v>0.5</v>
@@ -2160,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2171,10 +2174,10 @@
         <v>43980</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="25">
         <v>1</v>
@@ -2183,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2203,10 +2206,10 @@
         <v>43983</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="25">
         <v>0.5</v>
@@ -2215,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2226,19 +2229,19 @@
         <v>43984</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2249,10 +2252,10 @@
         <v>43985</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="25">
         <v>0.5</v>
@@ -2270,10 +2273,10 @@
         <v>43986</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="25">
         <v>1</v>
@@ -2290,10 +2293,10 @@
         <v>43987</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="25">
         <v>0.5</v>
@@ -2302,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2313,10 +2316,10 @@
         <v>43990</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="25">
         <v>0.9</v>
@@ -2325,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2336,10 +2339,10 @@
         <v>43991</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="25">
         <v>1</v>
@@ -2356,10 +2359,10 @@
         <v>43992</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="25">
         <v>1</v>
@@ -2368,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2379,10 +2382,10 @@
         <v>43993</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="25">
         <v>0.1</v>
@@ -2391,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2402,10 +2405,10 @@
         <v>43994</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="25">
         <v>0.1</v>
@@ -2414,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2460,15 +2463,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2571,15 +2574,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
